--- a/data/spuibeheer/extern/verwerkt_in_excel/os_AKL&LK_2024.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_AKL&LK_2024.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\AST-SVM_W_SV Evergem-AKL\AKL\HEIST\Omgekeerd spuibeheer Heist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Github\aangepast-spuibeheer\data\spuibeheer\extern\verwerkt_in_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833DC31-3694-4C33-8379-3826AD4838E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{751300C9-22D4-442C-9581-EEFCEBA2AC30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,9 +122,6 @@
     <t>12u</t>
   </si>
   <si>
-    <t>14:45u</t>
-  </si>
-  <si>
     <t>6u50</t>
   </si>
   <si>
@@ -154,12 +150,15 @@
   </si>
   <si>
     <t>Einde Omgekeerd spuibeheer</t>
+  </si>
+  <si>
+    <t>14u45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,6 +395,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -709,21 +709,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769A7D22-BE3E-4510-8E51-02EEB5D40F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -752,7 +752,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -771,36 +771,36 @@
       <c r="O3" s="10"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="41"/>
       <c r="F4" s="9"/>
       <c r="I4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="9"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9"/>
       <c r="I5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="9"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
@@ -816,7 +816,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45352</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45353</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45354</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="20"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>45355</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>45356</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="20"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>45357</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>45358</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>45359</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>45360</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>45361</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>45362</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>45363</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>45364</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>45365</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>45366</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="20"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>45367</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="20"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>45368</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="O23" s="16"/>
       <c r="P23" s="20"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>45369</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="20"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>45370</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="O25" s="16"/>
       <c r="P25" s="20"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>45371</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="O26" s="16"/>
       <c r="P26" s="20"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>45372</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="20"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>45373</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="O28" s="16"/>
       <c r="P28" s="20"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>45374</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="O29" s="16"/>
       <c r="P29" s="20"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>45375</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="O30" s="16"/>
       <c r="P30" s="20"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>45376</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="O31" s="16"/>
       <c r="P31" s="20"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>45377</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O32" s="16"/>
       <c r="P32" s="20"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>45378</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="O33" s="16"/>
       <c r="P33" s="20"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>45379</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="O34" s="16"/>
       <c r="P34" s="20"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>45380</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="O35" s="16"/>
       <c r="P35" s="20"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>45381</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="O36" s="16"/>
       <c r="P36" s="20"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>45382</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="O37" s="16"/>
       <c r="P37" s="20"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>45383</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="O38" s="16"/>
       <c r="P38" s="20"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>45384</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="O39" s="16"/>
       <c r="P39" s="20"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>45385</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="O40" s="16"/>
       <c r="P40" s="20"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>45386</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="O41" s="16"/>
       <c r="P41" s="20"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>45387</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="O42" s="16"/>
       <c r="P42" s="20"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>45388</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="O43" s="16"/>
       <c r="P43" s="20"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>45389</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="O44" s="16"/>
       <c r="P44" s="20"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>45390</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="O45" s="16"/>
       <c r="P45" s="20"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>45391</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="O46" s="16"/>
       <c r="P46" s="20"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>45392</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="O47" s="16"/>
       <c r="P47" s="20"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>45393</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="O48" s="16"/>
       <c r="P48" s="20"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>45394</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="20"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>45395</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="20"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>45396</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="O51" s="16"/>
       <c r="P51" s="20"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>45397</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="O52" s="16"/>
       <c r="P52" s="20"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>45398</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="O53" s="16"/>
       <c r="P53" s="20"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>45399</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="O54" s="16"/>
       <c r="P54" s="20"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45400</v>
       </c>
@@ -2065,8 +2065,8 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>29</v>
+      <c r="F55" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -2079,13 +2079,13 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="18" t="s">
-        <v>29</v>
+      <c r="N55" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="O55" s="16"/>
       <c r="P55" s="20"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>45401</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="O56" s="16"/>
       <c r="P56" s="20"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>45402</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="O57" s="16"/>
       <c r="P57" s="20"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>45403</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="O58" s="16"/>
       <c r="P58" s="20"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>45404</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="O59" s="16"/>
       <c r="P59" s="20"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>45405</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="O60" s="16"/>
       <c r="P60" s="20"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>45406</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="O61" s="16"/>
       <c r="P61" s="20"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>45407</v>
       </c>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O62" s="16"/>
       <c r="P62" s="20"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>45408</v>
       </c>
@@ -2290,13 +2290,13 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>45409</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -2315,7 +2315,7 @@
       <c r="O64" s="16"/>
       <c r="P64" s="20"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>45410</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="O65" s="16"/>
       <c r="P65" s="20"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>45411</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="O66" s="16"/>
       <c r="P66" s="20"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>45412</v>
       </c>
@@ -2393,13 +2393,13 @@
       <c r="O67" s="16"/>
       <c r="P67" s="20"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>45413</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="20"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="20"/>
@@ -2419,7 +2419,7 @@
       <c r="O68" s="16"/>
       <c r="P68" s="20"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>45414</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="O69" s="16"/>
       <c r="P69" s="20"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>45415</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="O70" s="16"/>
       <c r="P70" s="20"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>45416</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="O71" s="16"/>
       <c r="P71" s="20"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>45417</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="O72" s="16"/>
       <c r="P72" s="20"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>45418</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="O73" s="16"/>
       <c r="P73" s="20"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>45419</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="O74" s="16"/>
       <c r="P74" s="20"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>45420</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="20"/>
@@ -2591,7 +2591,7 @@
       <c r="O75" s="16"/>
       <c r="P75" s="20"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>45421</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="O76" s="16"/>
       <c r="P76" s="20"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>45422</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="O77" s="16"/>
       <c r="P77" s="20"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>45423</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="O78" s="16"/>
       <c r="P78" s="20"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>45424</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="O79" s="16"/>
       <c r="P79" s="20"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>45425</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="O80" s="16"/>
       <c r="P80" s="20"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>45426</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="O81" s="16"/>
       <c r="P81" s="20"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>45427</v>
       </c>
@@ -2758,11 +2758,11 @@
       <c r="L82" s="16"/>
       <c r="M82" s="20"/>
     </row>
-    <row r="83" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="34"/>
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="20"/>
@@ -2772,7 +2772,7 @@
       <c r="I83" s="34"/>
       <c r="J83" s="28"/>
       <c r="K83" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L83" s="36"/>
       <c r="M83" s="35"/>
